--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>批签发量</t>
   </si>
@@ -80,24 +80,55 @@
   <si>
     <t>水痘减毒活疫苗</t>
   </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>百克生物</t>
+  </si>
+  <si>
+    <t>长春祈健</t>
+  </si>
+  <si>
+    <t>上海所</t>
+  </si>
+  <si>
+    <t>荣盛生物</t>
+  </si>
+  <si>
+    <t>大连科兴</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -108,19 +139,25 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -132,35 +169,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +190,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +213,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,22 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,6 +281,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -282,126 +312,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,64 +496,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -504,6 +543,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,26 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,15 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +606,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -609,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,171 +660,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1148,663 +1196,663 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:8">
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>2020</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>2019</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>2018</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>2017</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1">
+      <c r="F1" s="7"/>
+      <c r="G1" s="4">
         <v>2020</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>2019</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>1739</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="9">
         <v>947</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>755</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>452</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="6">
         <v>0.84</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>1089</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>591</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>385</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>48</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="6">
         <v>0.84</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>69</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>201</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="11">
         <v>0.57</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9">
         <v>246</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>791</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>506</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>354</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>35</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="6">
         <v>0.56</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>507</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="9">
         <v>332</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
         <v>122</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="6">
         <v>0.52</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" ht="14.25" spans="1:15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>5779</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <v>7124</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>5641</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="9">
         <v>5941</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>556</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>477</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>515</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="9">
         <v>143</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="6">
         <v>0.16</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" ht="14.25" spans="1:15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>630</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="9">
         <v>459</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
         <v>203</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="9">
         <v>197</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="6">
         <v>0.37</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="1:15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>1133</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>717</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
         <v>1149</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="9">
         <v>1059</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" ht="14.25" spans="1:15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>797</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <v>439</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
         <v>1133</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" ht="14.25" spans="1:15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="9">
         <v>6461</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="9">
         <v>4827</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
         <v>4241</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="9">
         <v>4686</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="6">
         <v>0.34</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" ht="14.25" spans="1:15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>376</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="9">
         <v>232</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <v>239</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="9">
         <v>84</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="6">
         <v>0.62</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="9">
         <v>8177</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="9">
         <v>5844</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
         <v>6184</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="9">
         <v>5739</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="6">
         <v>0.4</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="9">
         <v>653</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="9">
         <v>1423</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <v>840</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="9">
         <v>2711</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>4261</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="9">
         <v>2511</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
         <v>2078</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="9">
         <v>2362</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="6">
         <v>0.7</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" ht="14.25" spans="1:15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="9">
         <v>2758</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="9">
         <v>2219</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>2102</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="9">
         <v>1447</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="6">
         <v>0.24</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" ht="14.25" spans="1:15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" ht="14.25" spans="1:15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="7:8">
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1823,14 +1871,1083 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:23">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:23">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:23">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>883</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>716</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6">
+        <v>0.2333</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:23">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:23">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:23">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:23">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:23">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:23">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:23">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:23">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:23">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:23">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:23">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:23">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:23">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:23">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:23">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:23">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:23">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:23">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:23">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:23">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:23">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:23">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:23">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:23">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:23">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:23">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:23">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:23">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:23">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:23">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:23">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:23">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>批签发量</t>
   </si>
@@ -27,10 +27,13 @@
     <t>23价肺炎疫苗</t>
   </si>
   <si>
+    <t>单价200-220元</t>
+  </si>
+  <si>
     <t>13价肺炎疫苗</t>
   </si>
   <si>
-    <t>每人打4针</t>
+    <t>单价598元，每人打4针</t>
   </si>
   <si>
     <t>二价HPV疫苗</t>
@@ -45,9 +48,15 @@
     <t>四价HPV疫苗</t>
   </si>
   <si>
+    <t>单价798元</t>
+  </si>
+  <si>
     <t>九价HPV疫苗</t>
   </si>
   <si>
+    <t>单价1298元</t>
+  </si>
+  <si>
     <t>吸附无细胞百白破联合疫苗</t>
   </si>
   <si>
@@ -63,12 +72,18 @@
     <t>狂犬疫苗（Vero细胞）</t>
   </si>
   <si>
+    <t>单价50元，每人打5针</t>
+  </si>
+  <si>
     <t>冻干狂苗（Vero细胞）</t>
   </si>
   <si>
     <t>二倍体狂苗</t>
   </si>
   <si>
+    <t>单价255元，每人打5针</t>
+  </si>
+  <si>
     <t>狂犬疫苗合计</t>
   </si>
   <si>
@@ -81,6 +96,21 @@
     <t>水痘减毒活疫苗</t>
   </si>
   <si>
+    <t>单价148元</t>
+  </si>
+  <si>
+    <t>肠道病毒EV71 灭活疫苗</t>
+  </si>
+  <si>
+    <t>单价188元</t>
+  </si>
+  <si>
+    <t>ACYW135多糖疫苗</t>
+  </si>
+  <si>
+    <t>单价65元</t>
+  </si>
+  <si>
     <t>占比</t>
   </si>
   <si>
@@ -97,6 +127,36 @@
   </si>
   <si>
     <t>大连科兴</t>
+  </si>
+  <si>
+    <t>玉溪沃森</t>
+  </si>
+  <si>
+    <t>北京智飞绿竹</t>
+  </si>
+  <si>
+    <t>成都康华</t>
+  </si>
+  <si>
+    <t>华兰生物</t>
+  </si>
+  <si>
+    <t>艾美卫信</t>
+  </si>
+  <si>
+    <t>23价肺炎球菌多糖疫苗</t>
+  </si>
+  <si>
+    <t>民海生物</t>
+  </si>
+  <si>
+    <t>沃森生物</t>
+  </si>
+  <si>
+    <t>默克</t>
+  </si>
+  <si>
+    <t>成都所</t>
   </si>
 </sst>
 </file>
@@ -104,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -131,14 +191,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -148,13 +206,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,28 +268,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +289,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -220,9 +321,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,59 +350,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,7 +372,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,13 +456,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,13 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,133 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,9 +581,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -536,7 +594,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -567,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,17 +657,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,30 +700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +720,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,35 +863,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1184,51 +1246,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:8">
-      <c r="B1" s="4">
+      <c r="B1" s="13">
         <v>2020</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="13">
         <v>2019</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="13">
         <v>2018</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="13">
         <v>2017</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4">
+      <c r="F1" s="14"/>
+      <c r="G1" s="13">
         <v>2020</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="13">
         <v>2019</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1241,71 +1303,73 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="15">
         <v>1739</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="15">
         <v>947</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="15">
         <v>755</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="15">
         <v>452</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.84</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15">
         <v>1089</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="15">
         <v>591</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="15">
         <v>385</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="15">
         <v>48</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.84</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1315,122 +1379,126 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15">
         <v>69</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="15">
         <v>201</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="11">
+      <c r="G6" s="17">
         <v>0.57</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15">
         <v>246</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="15">
         <v>0</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15">
         <v>791</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="15">
         <v>506</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="15">
         <v>354</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="15">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.56</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="15">
         <v>507</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="15">
         <v>332</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="15">
         <v>122</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.52</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1441,23 +1509,23 @@
     </row>
     <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
         <v>5779</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="15">
         <v>7124</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="15">
         <v>5641</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="15">
         <v>5941</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1468,25 +1536,25 @@
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15">
         <v>556</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>477</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>515</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="15">
         <v>143</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.16</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1497,25 +1565,25 @@
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15">
         <v>630</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="15">
         <v>459</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="15">
         <v>203</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="15">
         <v>197</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.37</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1526,23 +1594,23 @@
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15">
         <v>1133</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="15">
         <v>717</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="15">
         <v>1149</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="15">
         <v>1059</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1553,13 +1621,13 @@
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1570,50 +1638,52 @@
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15">
         <v>797</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="15">
         <v>439</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="15">
         <v>1133</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
+        <v>19</v>
+      </c>
+      <c r="B17" s="15">
         <v>6461</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="15">
         <v>4827</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="15">
         <v>4241</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="15">
         <v>4686</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.34</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1624,54 +1694,56 @@
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15">
         <v>376</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="15">
         <v>232</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="15">
         <v>239</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="15">
         <v>84</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.62</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="15">
         <v>8177</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="15">
         <v>5844</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="15">
         <v>6184</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="15">
         <v>5739</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.4</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1682,13 +1754,13 @@
     </row>
     <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1699,23 +1771,23 @@
     </row>
     <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9">
+        <v>23</v>
+      </c>
+      <c r="B21" s="15">
         <v>653</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="15">
         <v>1423</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="15">
         <v>840</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="15">
         <v>2711</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1726,25 +1798,25 @@
     </row>
     <row r="22" ht="14.25" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9">
+        <v>24</v>
+      </c>
+      <c r="B22" s="15">
         <v>4261</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="15">
         <v>2511</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="15">
         <v>2078</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="15">
         <v>2362</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.7</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1755,42 +1827,44 @@
     </row>
     <row r="23" ht="14.25" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15">
         <v>2758</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="15">
         <v>2219</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="15">
         <v>2102</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="15">
         <v>1447</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.24</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1801,13 +1875,13 @@
     </row>
     <row r="25" ht="14.25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1817,18 +1891,30 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1551</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1885</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3309</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1906</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1840,8 +1926,8 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1850,15 +1936,267 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="7:8">
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+    <row r="28" ht="14.25" spans="1:15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1115</v>
+      </c>
+      <c r="C29" s="7">
+        <v>338</v>
+      </c>
+      <c r="D29" s="7">
+        <v>496</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I29:L29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
@@ -1871,18 +2209,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:23">
+    <row r="1" ht="14.25" spans="1:24">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>2020</v>
@@ -1892,12 +2230,14 @@
         <v>2019</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="4">
+      <c r="F1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="13">
         <v>2020</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1912,19 +2252,22 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:23">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:24">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1941,10 +2284,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:23">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:24">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1968,31 +2312,32 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:23">
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>883</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.32</v>
       </c>
       <c r="D4" s="1">
         <v>716</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.32</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6">
+      <c r="H4" s="1"/>
+      <c r="I4" s="5">
         <v>0.2333</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2005,23 +2350,24 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:23">
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.31</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2034,23 +2380,24 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:23">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2063,10 +2410,11 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:23">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2074,10 +2422,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2090,10 +2438,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:23">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2101,10 +2450,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2117,8 +2466,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:23">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:24">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2126,10 +2476,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2142,19 +2492,22 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:23">
-      <c r="A10" s="5"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:24">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2167,19 +2520,28 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:23">
-      <c r="A11" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:24">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
+      <c r="D11" s="7">
+        <v>238</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2192,19 +2554,26 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:23">
-      <c r="A12" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:24">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2217,19 +2586,26 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:23">
-      <c r="A13" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:24">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
+        <v>0.07</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2242,19 +2618,26 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:23">
-      <c r="A14" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:24">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2267,19 +2650,22 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:23">
-      <c r="A15" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:24">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2292,8 +2678,9 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:23">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:24">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2301,10 +2688,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2317,8 +2704,9 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:23">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:24">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2326,10 +2714,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2342,19 +2730,22 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:23">
-      <c r="A18" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:24">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2367,19 +2758,28 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:23">
-      <c r="A19" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:24">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="1"/>
+      <c r="D19" s="12">
+        <v>89.26</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2392,19 +2792,28 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:23">
-      <c r="A20" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:24">
+      <c r="A20" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
+      <c r="D20" s="12">
+        <v>357.84</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2417,19 +2826,28 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:23">
-      <c r="A21" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:24">
+      <c r="A21" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="1"/>
+      <c r="D21" s="12">
+        <v>144.89</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2442,19 +2860,28 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:23">
-      <c r="A22" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:24">
+      <c r="A22" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="1"/>
+      <c r="D22" s="12">
+        <v>354.97</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2467,8 +2894,9 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:23">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:24">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2476,10 +2904,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2492,8 +2920,9 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:23">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2501,10 +2930,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2517,8 +2946,9 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:23">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:24">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2526,10 +2956,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2542,8 +2972,9 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:23">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:24">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2551,10 +2982,10 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2567,8 +2998,9 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:23">
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:24">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2576,10 +3008,10 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2592,8 +3024,9 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:23">
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:24">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2601,10 +3034,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2617,8 +3050,9 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:23">
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:24">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2626,10 +3060,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2642,8 +3076,9 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:23">
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:24">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2651,10 +3086,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2667,8 +3102,9 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:23">
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:24">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2676,10 +3112,10 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2692,8 +3128,9 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:23">
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:24">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2701,10 +3138,10 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2717,8 +3154,9 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:23">
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:24">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2726,10 +3164,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2742,8 +3180,9 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:23">
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:24">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2751,10 +3190,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2767,8 +3206,9 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:23">
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:24">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2776,10 +3216,10 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2792,8 +3232,9 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:23">
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:24">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2801,10 +3242,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2817,8 +3258,9 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:23">
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:24">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2826,10 +3268,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2842,8 +3284,9 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:23">
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:24">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2867,8 +3310,9 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:23">
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:24">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2892,8 +3336,9 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:23">
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:24">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2917,8 +3362,9 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:23">
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:24">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2942,11 +3388,13 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,16 +214,98 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,103 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +335,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +372,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,25 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,13 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,79 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,13 +528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,26 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,16 +634,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,15 +692,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +720,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -2211,8 +2211,8 @@
   <sheetPr/>
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2764,8 +2764,12 @@
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1">
+        <v>408</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.23</v>
+      </c>
       <c r="D19" s="12">
         <v>89.26</v>
       </c>

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>批签发量</t>
   </si>
@@ -60,13 +60,25 @@
     <t>吸附无细胞百白破联合疫苗</t>
   </si>
   <si>
+    <t>单价3.4元，4针</t>
+  </si>
+  <si>
+    <t>Hib疫苗</t>
+  </si>
+  <si>
+    <t>单价78元，3针</t>
+  </si>
+  <si>
     <t>四联苗</t>
   </si>
   <si>
+    <t>单价278、368元，4针</t>
+  </si>
+  <si>
     <t>五联苗</t>
   </si>
   <si>
-    <t>Hib疫苗</t>
+    <t>单价600元，4针</t>
   </si>
   <si>
     <t>狂犬疫苗（Vero细胞）</t>
@@ -96,7 +108,7 @@
     <t>水痘减毒活疫苗</t>
   </si>
   <si>
-    <t>单价148元</t>
+    <t>单价148元，2针</t>
   </si>
   <si>
     <t>肠道病毒EV71 灭活疫苗</t>
@@ -213,24 +225,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,57 +235,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +250,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -319,22 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -343,8 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,13 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +402,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,55 +510,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,30 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,18 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,6 +615,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,21 +649,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -648,24 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -677,6 +680,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,137 +732,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +909,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1249,7 +1264,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="I29" sqref="I29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,95 +1541,103 @@
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="15">
-        <v>556</v>
-      </c>
-      <c r="C12" s="12">
-        <v>477</v>
-      </c>
-      <c r="D12" s="12">
-        <v>515</v>
+        <v>1133</v>
+      </c>
+      <c r="C12" s="15">
+        <v>717</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1149</v>
       </c>
       <c r="E12" s="15">
-        <v>143</v>
+        <v>1059</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="5">
-        <v>0.16</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15">
-        <v>630</v>
-      </c>
-      <c r="C13" s="15">
-        <v>459</v>
-      </c>
-      <c r="D13" s="15">
-        <v>203</v>
+        <v>556</v>
+      </c>
+      <c r="C13" s="12">
+        <v>477</v>
+      </c>
+      <c r="D13" s="12">
+        <v>515</v>
       </c>
       <c r="E13" s="15">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="5">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="I13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" s="15">
-        <v>1133</v>
+        <v>630</v>
       </c>
       <c r="C14" s="15">
-        <v>717</v>
+        <v>459</v>
       </c>
       <c r="D14" s="15">
-        <v>1149</v>
+        <v>203</v>
       </c>
       <c r="E14" s="15">
-        <v>1059</v>
+        <v>197</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>0.37</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1638,7 +1661,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="15">
         <v>797</v>
@@ -1654,7 +1677,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
@@ -1665,7 +1688,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="15">
         <v>6461</v>
@@ -1694,7 +1717,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" s="15">
         <v>376</v>
@@ -1714,7 +1737,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
@@ -1725,7 +1748,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" s="15">
         <v>8177</v>
@@ -1771,7 +1794,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" s="15">
         <v>653</v>
@@ -1798,7 +1821,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" s="15">
         <v>4261</v>
@@ -1827,7 +1850,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" s="15">
         <v>2758</v>
@@ -1847,7 +1870,7 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
@@ -1892,7 +1915,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26" s="15">
         <v>1551</v>
@@ -1910,7 +1933,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
@@ -1955,7 +1978,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29" s="15">
         <v>1115</v>
@@ -1971,7 +1994,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -2185,13 +2208,17 @@
       <c r="O41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I23:L23"/>
@@ -2212,7 +2239,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2258,15 +2285,15 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2288,7 +2315,7 @@
     </row>
     <row r="3" ht="15.75" spans="1:24">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2316,7 +2343,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>883</v>
@@ -2354,7 +2381,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5">
@@ -2384,7 +2411,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5">
@@ -2414,7 +2441,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2442,7 +2469,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2496,7 +2523,7 @@
     </row>
     <row r="10" ht="15.75" spans="1:24">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2524,7 +2551,7 @@
     </row>
     <row r="11" ht="15.75" spans="1:24">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2558,7 +2585,7 @@
     </row>
     <row r="12" ht="15.75" spans="1:24">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2590,7 +2617,7 @@
     </row>
     <row r="13" ht="15.75" spans="1:24">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2622,7 +2649,7 @@
     </row>
     <row r="14" ht="15.75" spans="1:24">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2654,7 +2681,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:24">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2734,7 +2761,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:24">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2762,7 +2789,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:24">
       <c r="A19" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <v>408</v>
@@ -2800,7 +2827,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:24">
       <c r="A20" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2834,7 +2861,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:24">
       <c r="A21" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2868,7 +2895,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:24">
       <c r="A22" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>批签发量</t>
   </si>
@@ -117,6 +117,12 @@
     <t>单价188元</t>
   </si>
   <si>
+    <t>AC结合疫苗</t>
+  </si>
+  <si>
+    <t>单价60元</t>
+  </si>
+  <si>
     <t>ACYW135多糖疫苗</t>
   </si>
   <si>
@@ -141,10 +147,16 @@
     <t>大连科兴</t>
   </si>
   <si>
+    <t>罗益</t>
+  </si>
+  <si>
     <t>玉溪沃森</t>
   </si>
   <si>
     <t>北京智飞绿竹</t>
+  </si>
+  <si>
+    <t>祥瑞生物</t>
   </si>
   <si>
     <t>成都康华</t>
@@ -225,8 +237,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,38 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -279,23 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,15 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,7 +321,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -347,10 +344,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,6 +369,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,13 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +414,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,37 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,73 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +493,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,30 +652,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -669,6 +672,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,15 +701,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,137 +744,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,6 +893,19 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,7 +1289,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:L29"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1273,36 +1298,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:8">
-      <c r="B1" s="13">
+      <c r="B1" s="20">
         <v>2020</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="20">
         <v>2019</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="20">
         <v>2018</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="20">
         <v>2017</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20">
         <v>2020</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="20">
         <v>2019</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1318,16 +1343,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="22">
         <v>1739</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="22">
         <v>947</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="22">
         <v>755</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="22">
         <v>452</v>
       </c>
       <c r="F3" s="1"/>
@@ -1335,12 +1360,12 @@
         <v>0.84</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1349,16 +1374,16 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="22">
         <v>1089</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="22">
         <v>591</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="22">
         <v>385</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="22">
         <v>48</v>
       </c>
       <c r="F4" s="1"/>
@@ -1366,22 +1391,22 @@
         <v>0.84</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1394,69 +1419,69 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="22">
         <v>69</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="22">
         <v>201</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="17">
+      <c r="G6" s="24">
         <v>0.57</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="22">
         <v>246</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="22">
         <v>791</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="22">
         <v>506</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="22">
         <v>354</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="22">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
@@ -1464,30 +1489,30 @@
         <v>0.56</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="22">
         <v>507</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="22">
         <v>332</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="22">
         <v>122</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="22">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
@@ -1495,22 +1520,22 @@
         <v>0.52</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="1"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1526,27 +1551,27 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="22">
         <v>5779</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="22">
         <v>7124</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="22">
         <v>5641</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="22">
         <v>5941</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1555,27 +1580,27 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="22">
         <v>1133</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="22">
         <v>717</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="22">
         <v>1149</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="22">
         <v>1059</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1584,16 +1609,16 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="22">
         <v>556</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="19">
         <v>477</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="19">
         <v>515</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="22">
         <v>143</v>
       </c>
       <c r="F13" s="1"/>
@@ -1601,12 +1626,12 @@
         <v>0.16</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1615,16 +1640,16 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="22">
         <v>630</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="22">
         <v>459</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="22">
         <v>203</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="22">
         <v>197</v>
       </c>
       <c r="F14" s="1"/>
@@ -1632,22 +1657,22 @@
         <v>0.37</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1663,25 +1688,25 @@
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="22">
         <v>797</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="22">
         <v>439</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="22">
         <v>1133</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="1"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1690,16 +1715,16 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="22">
         <v>6461</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="22">
         <v>4827</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="22">
         <v>4241</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="22">
         <v>4686</v>
       </c>
       <c r="F17" s="1"/>
@@ -1719,16 +1744,16 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="22">
         <v>376</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="22">
         <v>232</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="22">
         <v>239</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="22">
         <v>84</v>
       </c>
       <c r="F18" s="1"/>
@@ -1736,30 +1761,30 @@
         <v>0.62</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="22">
         <v>8177</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="22">
         <v>5844</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="22">
         <v>6184</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="22">
         <v>5739</v>
       </c>
       <c r="F19" s="1"/>
@@ -1777,10 +1802,10 @@
     </row>
     <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="1"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1796,16 +1821,16 @@
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="22">
         <v>653</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="22">
         <v>1423</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="22">
         <v>840</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="22">
         <v>2711</v>
       </c>
       <c r="F21" s="1"/>
@@ -1823,16 +1848,16 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="22">
         <v>4261</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="22">
         <v>2511</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="22">
         <v>2078</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="22">
         <v>2362</v>
       </c>
       <c r="F22" s="1"/>
@@ -1852,16 +1877,16 @@
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="22">
         <v>2758</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="22">
         <v>2219</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="22">
         <v>2102</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="22">
         <v>1447</v>
       </c>
       <c r="F23" s="1"/>
@@ -1869,22 +1894,22 @@
         <v>0.24</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="1"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1898,10 +1923,10 @@
     </row>
     <row r="25" ht="14.25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="1"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1917,27 +1942,27 @@
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="22">
         <v>1551</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="22">
         <v>1885</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="22">
         <v>3309</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="22">
         <v>1906</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1960,45 +1985,53 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" ht="14.25" spans="1:15">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="8">
+        <v>791</v>
+      </c>
+      <c r="D28" s="8">
+        <v>477</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="I28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" ht="14.25" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="15">
+        <v>35</v>
+      </c>
+      <c r="B29" s="22">
         <v>1115</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="14">
         <v>338</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="14">
         <v>496</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2208,7 +2241,7 @@
       <c r="O41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I6:O6"/>
@@ -2223,6 +2256,7 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I28:L28"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="G6:G7"/>
@@ -2236,10 +2270,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2262,7 +2296,7 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="13">
+      <c r="I1" s="20">
         <v>2020</v>
       </c>
       <c r="J1" s="1"/>
@@ -2285,15 +2319,15 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2343,7 +2377,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>883</v>
@@ -2381,7 +2415,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5">
@@ -2411,7 +2445,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5">
@@ -2441,7 +2475,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2469,7 +2503,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2522,7 +2556,7 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" ht="15.75" spans="1:24">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1"/>
@@ -2550,20 +2584,20 @@
       <c r="X10" s="1"/>
     </row>
     <row r="11" ht="15.75" spans="1:24">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
+      <c r="A11" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7">
-        <v>238</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
-        <v>0.33</v>
+      <c r="D11" s="8">
+        <v>607</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <v>0.74</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -2584,18 +2618,20 @@
       <c r="X11" s="1"/>
     </row>
     <row r="12" ht="15.75" spans="1:24">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
+      <c r="A12" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
-        <v>0.35</v>
+      <c r="D12" s="8">
+        <v>118</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
+        <v>0.17</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="5"/>
@@ -2616,18 +2652,18 @@
       <c r="X12" s="1"/>
     </row>
     <row r="13" ht="15.75" spans="1:24">
-      <c r="A13" s="6" t="s">
-        <v>43</v>
+      <c r="A13" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
-        <v>0.07</v>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <v>0.09</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
@@ -2648,19 +2684,15 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" ht="15.75" spans="1:24">
-      <c r="A14" s="6" t="s">
-        <v>44</v>
+      <c r="A14" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
-        <v>0.23</v>
-      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2679,9 +2711,9 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" ht="14.25" spans="1:24">
-      <c r="A15" s="9" t="s">
-        <v>45</v>
+    <row r="15" ht="15.75" spans="1:24">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2707,14 +2739,22 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" ht="14.25" spans="1:24">
-      <c r="A16" s="1"/>
+    <row r="16" ht="15.75" spans="1:24">
+      <c r="A16" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="14">
+        <v>238</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15">
+        <v>0.33</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2733,14 +2773,20 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" ht="14.25" spans="1:24">
-      <c r="A17" s="1"/>
+    <row r="17" ht="15.75" spans="1:24">
+      <c r="A17" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15">
+        <v>0.35</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2759,16 +2805,20 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" ht="14.25" spans="1:24">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
+    <row r="18" ht="15.75" spans="1:24">
+      <c r="A18" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15">
+        <v>0.07</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2787,25 +2837,19 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" ht="14.25" spans="1:24">
-      <c r="A19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1">
-        <v>408</v>
-      </c>
-      <c r="C19" s="5">
+    <row r="19" ht="15.75" spans="1:24">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <v>0.23</v>
-      </c>
-      <c r="D19" s="12">
-        <v>89.26</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="8">
-        <v>0</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5"/>
@@ -2826,21 +2870,15 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:24">
-      <c r="A20" s="11" t="s">
-        <v>48</v>
+      <c r="A20" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="12">
-        <v>357.84</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="8">
-        <v>0.23</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2860,21 +2898,13 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:24">
-      <c r="A21" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="12">
-        <v>144.89</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="8">
-        <v>0.17</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2894,21 +2924,13 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:24">
-      <c r="A22" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="12">
-        <v>354.97</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2928,7 +2950,9 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" ht="14.25" spans="1:24">
-      <c r="A23" s="1"/>
+      <c r="A23" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2954,13 +2978,25 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1">
+        <v>408</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D24" s="19">
+        <v>89.26</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2980,13 +3016,21 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" ht="14.25" spans="1:24">
-      <c r="A25" s="1"/>
+      <c r="A25" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="19">
+        <v>357.84</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="15">
+        <v>0.23</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -3006,13 +3050,21 @@
       <c r="X25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:24">
-      <c r="A26" s="1"/>
+      <c r="A26" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="19">
+        <v>144.89</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15">
+        <v>0.17</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -3032,13 +3084,21 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" ht="14.25" spans="1:24">
-      <c r="A27" s="1"/>
+      <c r="A27" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="19">
+        <v>354.97</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="15">
+        <v>0.6</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -3326,9 +3386,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3352,9 +3412,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3378,9 +3438,9 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3404,9 +3464,9 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3420,6 +3480,136 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:24">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:24">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:24">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:24">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:24">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>批签发量</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>成都所</t>
+  </si>
+  <si>
+    <t>四联疫苗</t>
   </si>
 </sst>
 </file>
@@ -188,8 +191,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -239,9 +242,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,8 +264,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -277,85 +361,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,13 +379,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,7 +399,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +507,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,157 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,31 +631,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +669,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -690,17 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,9 +895,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,11 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,6 +914,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1286,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1297,7 +1300,7 @@
     <col min="1" max="1" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:8">
+    <row r="1" ht="14.25" spans="2:9">
       <c r="B1" s="20">
         <v>2020</v>
       </c>
@@ -1310,16 +1313,19 @@
       <c r="E1" s="20">
         <v>2017</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20">
+      <c r="F1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20">
         <v>2020</v>
       </c>
-      <c r="H1" s="20">
+      <c r="I1" s="20">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="17" t="s">
+    <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1328,18 +1334,19 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:15">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,22 +1362,23 @@
       <c r="E3" s="22">
         <v>452</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5">
+      <c r="F3" s="22"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5">
         <v>0.84</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:15">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,39 +1394,41 @@
       <c r="E4" s="22">
         <v>48</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5">
+      <c r="F4" s="22"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5">
         <v>0.84</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:15">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:15">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:16">
       <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
@@ -1430,22 +1440,23 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="24">
+      <c r="F6" s="22"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="24">
         <v>0.57</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:15">
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
       <c r="A7" s="23"/>
       <c r="B7" s="22">
         <v>246</v>
@@ -1455,21 +1466,22 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="25" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="14" t="s">
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="22">
@@ -1484,23 +1496,24 @@
       <c r="E8" s="22">
         <v>35</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5">
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5">
         <v>0.56</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="14" t="s">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:16">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="22">
@@ -1515,39 +1528,41 @@
       <c r="E9" s="22">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5">
+      <c r="F9" s="22"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5">
         <v>0.52</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:15">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:15">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1563,20 +1578,21 @@
       <c r="E11" s="22">
         <v>5941</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:15">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,51 +1608,55 @@
       <c r="E12" s="22">
         <v>1059</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:15">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="22">
         <v>556</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>477</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>515</v>
       </c>
       <c r="E13" s="22">
         <v>143</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5">
+      <c r="F13" s="22">
+        <v>132</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5">
         <v>0.16</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:15">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1652,39 +1672,41 @@
       <c r="E14" s="22">
         <v>197</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5">
+      <c r="F14" s="22"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5">
         <v>0.37</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:15">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:15">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1698,20 +1720,21 @@
         <v>1133</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:15">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1727,20 +1750,21 @@
       <c r="E17" s="22">
         <v>4686</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5">
+      <c r="F17" s="22"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5">
         <v>0.34</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:15">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1756,23 +1780,24 @@
       <c r="E18" s="22">
         <v>84</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5">
+      <c r="F18" s="22"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5">
         <v>0.62</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="16" t="s">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:16">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="22">
@@ -1787,37 +1812,39 @@
       <c r="E19" s="22">
         <v>5739</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5">
+      <c r="F19" s="22"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5">
         <v>0.4</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:15">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:15">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1833,18 +1860,19 @@
       <c r="E21" s="22">
         <v>2711</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:15">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1860,20 +1888,21 @@
       <c r="E22" s="22">
         <v>2362</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="5">
+      <c r="F22" s="22"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5">
         <v>0.7</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:15">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1889,56 +1918,59 @@
       <c r="E23" s="22">
         <v>1447</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5">
+      <c r="F23" s="22"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5">
         <v>0.24</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:15">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:15">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:15">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1954,89 +1986,93 @@
       <c r="E26" s="22">
         <v>1906</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:15">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:15">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>791</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>477</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="25"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:15">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="22">
         <v>1115</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="7">
         <v>338</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="7">
         <v>496</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:15">
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2052,8 +2088,9 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:15">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2069,8 +2106,9 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:15">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2086,8 +2124,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:15">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2103,8 +2142,9 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:15">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2120,8 +2160,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:15">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2137,8 +2178,9 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:15">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2154,8 +2196,9 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:15">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2171,8 +2214,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:15">
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2188,8 +2232,9 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:15">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2205,8 +2250,9 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:15">
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2222,8 +2268,9 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:15">
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:16">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2239,27 +2286,28 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2270,10 +2318,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2281,7 +2329,7 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:24">
+    <row r="1" ht="14.25" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>2020</v>
@@ -2295,12 +2343,14 @@
         <v>2018</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="20">
+      <c r="H1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="20">
         <v>2020</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2314,8 +2364,10 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -2330,7 +2382,9 @@
         <v>37</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2346,8 +2400,10 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:24">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -2374,8 +2430,10 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:24">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2394,13 +2452,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="5">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="5">
         <v>0.2333</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2412,8 +2470,10 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:24">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2426,11 +2486,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2442,8 +2502,10 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:24">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2456,11 +2518,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2472,8 +2534,10 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:24">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2484,11 +2548,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2500,8 +2564,10 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:24">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2512,11 +2578,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2528,8 +2594,10 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:24">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:26">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2538,11 +2606,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2554,9 +2622,11 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:24">
-      <c r="A10" s="6" t="s">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:26">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1"/>
@@ -2566,11 +2636,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2582,29 +2652,31 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:24">
-      <c r="A11" s="7" t="s">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:26">
+      <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>607</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0.77</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9">
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
         <v>0.74</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2616,29 +2688,31 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:24">
-      <c r="A12" s="7" t="s">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:26">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>118</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.15</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9">
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
         <v>0.17</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2650,27 +2724,29 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:24">
-      <c r="A13" s="7" t="s">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:26">
+      <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
         <v>0.08</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9">
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
         <v>0.09</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2682,23 +2758,25 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:24">
-      <c r="A14" s="10" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:26">
+      <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2710,8 +2788,10 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:24">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:26">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -2722,11 +2802,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2738,29 +2818,31 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:24">
-      <c r="A16" s="13" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:26">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="14">
+      <c r="D16" s="7">
         <v>238</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="8">
         <v>0.7</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15">
+      <c r="F16" s="7"/>
+      <c r="G16" s="8">
         <v>0.33</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2772,27 +2854,29 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:24">
-      <c r="A17" s="13" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:26">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
         <v>0.22</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8">
         <v>0.35</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2804,27 +2888,29 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:24">
-      <c r="A18" s="13" t="s">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:26">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
         <v>0.04</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15">
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
         <v>0.07</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2836,27 +2922,29 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:24">
-      <c r="A19" s="13" t="s">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:26">
+      <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8">
         <v>0.03</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="F19" s="7"/>
+      <c r="G19" s="8">
         <v>0.23</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2868,9 +2956,11 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:24">
-      <c r="A20" s="16" t="s">
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:26">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1"/>
@@ -2880,11 +2970,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2896,8 +2986,10 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:24">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:26">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2906,11 +2998,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2922,8 +3014,10 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:24">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:26">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2932,11 +3026,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2948,9 +3042,11 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:24">
-      <c r="A23" s="17" t="s">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:26">
+      <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1"/>
@@ -2960,11 +3056,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2976,9 +3072,11 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:24">
-      <c r="A24" s="18" t="s">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:26">
+      <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="1">
@@ -2987,22 +3085,22 @@
       <c r="C24" s="5">
         <v>0.23</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <v>89.26</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="8">
         <v>0.09</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="15">
+      <c r="F24" s="15"/>
+      <c r="G24" s="8">
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3014,29 +3112,31 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:24">
-      <c r="A25" s="18" t="s">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:26">
+      <c r="A25" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="19">
+      <c r="D25" s="15">
         <v>357.84</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="8">
         <v>0.38</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="15">
+      <c r="F25" s="15"/>
+      <c r="G25" s="8">
         <v>0.23</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3048,29 +3148,31 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:24">
-      <c r="A26" s="18" t="s">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:26">
+      <c r="A26" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="19">
+      <c r="D26" s="15">
         <v>144.89</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="8">
         <v>0.15</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="15">
+      <c r="F26" s="15"/>
+      <c r="G26" s="8">
         <v>0.17</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3082,29 +3184,31 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:24">
-      <c r="A27" s="18" t="s">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:26">
+      <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="19">
+      <c r="D27" s="15">
         <v>354.97</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="8">
         <v>0.37</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="15">
+      <c r="F27" s="15"/>
+      <c r="G27" s="8">
         <v>0.6</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3116,8 +3220,10 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:24">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:26">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3126,11 +3232,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3142,9 +3248,13 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:24">
-      <c r="A29" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:26">
+      <c r="A29" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3152,11 +3262,11 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3168,21 +3278,37 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:24">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:26">
+      <c r="A30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1">
+        <v>556</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="D30" s="18">
+        <v>477</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18">
+        <v>515</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>143</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3194,8 +3320,10 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:24">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:26">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3204,11 +3332,11 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3220,8 +3348,10 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:24">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:26">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3230,11 +3360,11 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3246,8 +3376,10 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:24">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:26">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3256,11 +3388,11 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3272,8 +3404,10 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:24">
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:26">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3282,11 +3416,11 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3298,8 +3432,10 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:24">
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:26">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3308,11 +3444,11 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3324,8 +3460,10 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:24">
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:26">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3334,11 +3472,11 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3350,8 +3488,10 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:24">
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:26">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3360,11 +3500,11 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3376,8 +3516,10 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:24">
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:26">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3386,11 +3528,11 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3402,8 +3544,10 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:24">
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:26">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3412,11 +3556,11 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3428,8 +3572,10 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:24">
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:26">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3438,11 +3584,11 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3454,8 +3600,10 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:24">
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:26">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3464,11 +3612,11 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3480,8 +3628,10 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:24">
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:26">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3490,11 +3640,11 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3506,8 +3656,10 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:24">
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:26">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3532,8 +3684,10 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:24">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:26">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3558,8 +3712,10 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:24">
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:26">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3584,8 +3740,10 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:24">
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:26">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3610,12 +3768,15 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -240,9 +240,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,71 +252,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,11 +271,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,32 +370,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -399,7 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +459,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,133 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,17 +630,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,9 +671,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,37 +704,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,137 +747,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,14 +914,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,9 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,7 +1283,7 @@
   <sheetPr/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1301,26 +1293,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:9">
-      <c r="B1" s="20">
+      <c r="B1" s="17">
         <v>2020</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="17">
         <v>2019</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="17">
         <v>2018</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="17">
         <v>2017</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="17">
         <v>2016</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17">
         <v>2020</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="17">
         <v>2019</v>
       </c>
     </row>
@@ -1328,13 +1320,13 @@
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1350,30 +1342,30 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>1739</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>947</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <v>755</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>452</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="1"/>
       <c r="H3" s="5">
         <v>0.84</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1382,41 +1374,41 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>1089</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>591</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>385</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>48</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="1"/>
       <c r="H4" s="5">
         <v>0.84</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="1"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1429,85 +1421,85 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>69</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>201</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>0.57</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" ht="14.25" spans="1:16">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19">
         <v>246</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" ht="14.25" spans="1:16">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>791</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>506</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>354</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>35</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="1"/>
       <c r="H8" s="5">
         <v>0.56</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1516,41 +1508,41 @@
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>507</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>332</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>122</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="1"/>
       <c r="H9" s="5">
         <v>0.52</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="1"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1566,28 +1558,28 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>5779</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>7124</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>5641</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>5941</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1596,28 +1588,28 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>1133</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>717</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>1149</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>1059</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="1"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1626,7 +1618,7 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <v>556</v>
       </c>
       <c r="C13" s="15">
@@ -1635,10 +1627,10 @@
       <c r="D13" s="15">
         <v>515</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>143</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>132</v>
       </c>
       <c r="G13" s="1"/>
@@ -1646,12 +1638,12 @@
         <v>0.16</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1660,41 +1652,41 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>630</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <v>459</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>203</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>197</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="1"/>
       <c r="H14" s="5">
         <v>0.37</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:16">
       <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1710,26 +1702,26 @@
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>797</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>439</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>1133</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1738,19 +1730,19 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>6461</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <v>4827</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>4241</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <v>4686</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="1"/>
       <c r="H17" s="5">
         <v>0.34</v>
@@ -1768,30 +1760,30 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>376</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>232</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>239</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>84</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5">
         <v>0.62</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1800,19 +1792,19 @@
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>8177</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>5844</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>6184</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>5739</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5">
         <v>0.4</v>
@@ -1828,11 +1820,11 @@
     </row>
     <row r="20" ht="14.25" spans="1:16">
       <c r="A20" s="1"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1848,19 +1840,19 @@
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>653</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <v>1423</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>840</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>2711</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="1"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1876,19 +1868,19 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>4261</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <v>2511</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>2078</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <v>2362</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5">
         <v>0.7</v>
@@ -1906,41 +1898,41 @@
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="19">
         <v>2758</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>2219</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>2102</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>1447</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5">
         <v>0.24</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:16">
       <c r="A24" s="1"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="1"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1954,11 +1946,11 @@
     </row>
     <row r="25" ht="14.25" spans="1:16">
       <c r="A25" s="1"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1974,28 +1966,28 @@
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>1551</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>1885</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>3309</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>1906</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2034,12 +2026,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2048,7 +2040,7 @@
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="19">
         <v>1115</v>
       </c>
       <c r="C29" s="7">
@@ -2062,12 +2054,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2318,10 +2310,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2348,7 +2340,7 @@
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="20">
+      <c r="K1" s="17">
         <v>2020</v>
       </c>
       <c r="L1" s="1"/>
@@ -2597,8 +2589,10 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="14.25" spans="1:26">
-      <c r="A9" s="1"/>
+    <row r="9" ht="15.75" spans="1:26">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2626,15 +2620,21 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="15.75" spans="1:26">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
+      <c r="A10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="7">
+        <v>607</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
+        <v>0.74</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2657,19 +2657,19 @@
     </row>
     <row r="11" ht="15.75" spans="1:26">
       <c r="A11" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="7">
-        <v>607</v>
+        <v>118</v>
       </c>
       <c r="E11" s="8">
-        <v>0.77</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
-        <v>0.74</v>
+        <v>0.17</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2693,19 +2693,17 @@
     </row>
     <row r="12" ht="15.75" spans="1:26">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7">
-        <v>118</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2728,19 +2726,15 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="15.75" spans="1:26">
-      <c r="A13" s="6" t="s">
-        <v>45</v>
+      <c r="A13" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
-        <v>0.09</v>
-      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2762,15 +2756,15 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="15.75" spans="1:26">
-      <c r="A14" s="9" t="s">
-        <v>46</v>
+      <c r="A14" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2792,15 +2786,21 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="15.75" spans="1:26">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
+      <c r="A15" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="7">
+        <v>238</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
+        <v>0.33</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2823,19 +2823,17 @@
     </row>
     <row r="16" ht="15.75" spans="1:26">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="7">
-        <v>238</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="8">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2859,17 +2857,17 @@
     </row>
     <row r="17" ht="15.75" spans="1:26">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8">
-        <v>0.35</v>
+        <v>0.07</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2893,17 +2891,17 @@
     </row>
     <row r="18" ht="15.75" spans="1:26">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
-        <v>0.07</v>
+        <v>0.23</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2925,20 +2923,16 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="15.75" spans="1:26">
-      <c r="A19" s="6" t="s">
-        <v>48</v>
+    <row r="19" ht="14.25" spans="1:26">
+      <c r="A19" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
-        <v>0.23</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2960,9 +2954,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:26">
-      <c r="A20" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2990,7 +2982,9 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:26">
-      <c r="A21" s="1"/>
+      <c r="A21" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3018,13 +3012,25 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:26">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1">
+        <v>408</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D22" s="15">
+        <v>89.26</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3046,15 +3052,21 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="14.25" spans="1:26">
-      <c r="A23" s="13" t="s">
-        <v>50</v>
+      <c r="A23" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="15">
+        <v>357.84</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="8">
+        <v>0.23</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3077,23 +3089,19 @@
     </row>
     <row r="24" ht="14.25" spans="1:26">
       <c r="A24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1">
-        <v>408</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.23</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="15">
-        <v>89.26</v>
+        <v>144.89</v>
       </c>
       <c r="E24" s="8">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="8">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3117,19 +3125,19 @@
     </row>
     <row r="25" ht="14.25" spans="1:26">
       <c r="A25" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="15">
-        <v>357.84</v>
+        <v>354.97</v>
       </c>
       <c r="E25" s="8">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="8">
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3152,21 +3160,13 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:26">
-      <c r="A26" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="15">
-        <v>144.89</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="8">
-        <v>0.17</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3188,21 +3188,15 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="14.25" spans="1:26">
-      <c r="A27" s="14" t="s">
-        <v>54</v>
+      <c r="A27" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="15">
-        <v>354.97</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3224,14 +3218,28 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" ht="14.25" spans="1:26">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1">
+        <v>556</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="15">
+        <v>477</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <v>515</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>143</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="5"/>
@@ -3252,9 +3260,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="14.25" spans="1:26">
-      <c r="A29" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3282,28 +3288,14 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="14.25" spans="1:26">
-      <c r="A30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1">
-        <v>556</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="18">
-        <v>477</v>
-      </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18">
-        <v>515</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>143</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="5"/>
@@ -3614,9 +3606,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3642,9 +3634,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3714,62 +3706,6 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:26">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:26">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -241,7 +241,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +308,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -288,29 +317,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,15 +344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,10 +377,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -399,19 +399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +441,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,121 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +633,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -650,21 +698,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,39 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,19 +747,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,112 +768,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1352,7 +1352,7 @@
         <v>755</v>
       </c>
       <c r="E3" s="19">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="1"/>
@@ -2313,7 +2313,7 @@
   <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3063,12 +3063,18 @@
       <c r="E23" s="8">
         <v>0.38</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="15">
+        <v>161</v>
+      </c>
       <c r="G23" s="8">
         <v>0.23</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1">
+        <v>119</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.23</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -3104,7 +3110,9 @@
         <v>0.17</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="5">
+        <v>0.13</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -3135,12 +3143,16 @@
       <c r="E25" s="8">
         <v>0.37</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="15">
+        <v>422</v>
+      </c>
       <c r="G25" s="8">
         <v>0.6</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="5">
+        <v>0.64</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>

--- a/医药/疫苗/data.xlsx
+++ b/医药/疫苗/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>批签发量</t>
   </si>
@@ -174,13 +174,13 @@
     <t>民海生物</t>
   </si>
   <si>
-    <t>沃森生物</t>
-  </si>
-  <si>
     <t>默克</t>
   </si>
   <si>
     <t>成都所</t>
+  </si>
+  <si>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>四联疫苗</t>
@@ -240,8 +240,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,38 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -307,8 +314,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,46 +354,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +371,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +489,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,25 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,43 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,67 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +633,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -650,15 +659,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,17 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -727,6 +716,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,137 +747,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +914,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1284,7 +1287,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1293,26 +1296,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:9">
-      <c r="B1" s="17">
+      <c r="B1" s="18">
         <v>2020</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="18">
         <v>2019</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="18">
         <v>2018</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="18">
         <v>2017</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="18">
         <v>2016</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18">
         <v>2020</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="18">
         <v>2019</v>
       </c>
     </row>
@@ -1320,13 +1323,13 @@
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1342,30 +1345,30 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="20">
         <v>1739</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>947</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <v>755</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="20">
         <v>526</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="5">
         <v>0.84</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1374,41 +1377,41 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>1089</v>
       </c>
-      <c r="C4" s="19">
-        <v>591</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="20">
+        <v>475</v>
+      </c>
+      <c r="D4" s="20">
         <v>385</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>48</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="1"/>
       <c r="H4" s="5">
-        <v>0.84</v>
+        <v>1.29</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="1"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1421,85 +1424,85 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>69</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="20">
         <v>201</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="21">
+      <c r="H6" s="22">
         <v>0.57</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" ht="14.25" spans="1:16">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20">
         <v>246</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" ht="14.25" spans="1:16">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <v>791</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="20">
         <v>506</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <v>354</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="20">
         <v>35</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="1"/>
       <c r="H8" s="5">
         <v>0.56</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1508,41 +1511,41 @@
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>507</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="20">
         <v>332</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>122</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="1"/>
       <c r="H9" s="5">
         <v>0.52</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="1"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1558,28 +1561,28 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>5779</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="20">
         <v>7124</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <v>5641</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>5941</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1588,28 +1591,28 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <v>1133</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="20">
         <v>717</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <v>1149</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="20">
         <v>1059</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="1"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1618,7 +1621,7 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <v>556</v>
       </c>
       <c r="C13" s="15">
@@ -1627,10 +1630,10 @@
       <c r="D13" s="15">
         <v>515</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="20">
         <v>143</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="20">
         <v>132</v>
       </c>
       <c r="G13" s="1"/>
@@ -1638,12 +1641,12 @@
         <v>0.16</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1652,41 +1655,41 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>630</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="20">
         <v>459</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>203</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>197</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="1"/>
       <c r="H14" s="5">
         <v>0.37</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:16">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1702,26 +1705,26 @@
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>797</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <v>439</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="20">
         <v>1133</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1730,19 +1733,19 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="20">
         <v>6461</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="20">
         <v>4827</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <v>4241</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="20">
         <v>4686</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="1"/>
       <c r="H17" s="5">
         <v>0.34</v>
@@ -1760,30 +1763,30 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="20">
         <v>376</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="20">
         <v>232</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="20">
         <v>239</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="20">
         <v>84</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5">
         <v>0.62</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1792,19 +1795,19 @@
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="20">
         <v>8177</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>5844</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="20">
         <v>6184</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="20">
         <v>5739</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5">
         <v>0.4</v>
@@ -1820,11 +1823,11 @@
     </row>
     <row r="20" ht="14.25" spans="1:16">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1840,19 +1843,19 @@
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="20">
         <v>653</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="20">
         <v>1423</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>840</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="20">
         <v>2711</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="1"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1868,19 +1871,19 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="20">
         <v>4261</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="20">
         <v>2511</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <v>2078</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="20">
         <v>2362</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5">
         <v>0.7</v>
@@ -1898,41 +1901,41 @@
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="20">
         <v>2758</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="20">
         <v>2219</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <v>2102</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="20">
         <v>1447</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5">
         <v>0.24</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:16">
       <c r="A24" s="1"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="1"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1946,11 +1949,11 @@
     </row>
     <row r="25" ht="14.25" spans="1:16">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1966,28 +1969,28 @@
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>1551</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="20">
         <v>1885</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <v>3309</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="20">
         <v>1906</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2026,12 +2029,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2040,7 +2043,7 @@
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="20">
         <v>1115</v>
       </c>
       <c r="C29" s="7">
@@ -2054,12 +2057,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2310,10 +2313,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2340,7 +2347,7 @@
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="17">
+      <c r="K1" s="18">
         <v>2020</v>
       </c>
       <c r="L1" s="1"/>
@@ -3051,12 +3058,16 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="14.25" spans="1:26">
-      <c r="A23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" ht="15.75" spans="1:26">
+      <c r="A23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1">
+        <v>574</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.33</v>
+      </c>
       <c r="D23" s="15">
         <v>357.84</v>
       </c>
@@ -3095,10 +3106,12 @@
     </row>
     <row r="24" ht="14.25" spans="1:26">
       <c r="A24" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="5">
+        <v>0.03</v>
+      </c>
       <c r="D24" s="15">
         <v>144.89</v>
       </c>
@@ -3133,10 +3146,14 @@
     </row>
     <row r="25" ht="14.25" spans="1:26">
       <c r="A25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B25" s="1">
+        <v>708</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.41</v>
+      </c>
       <c r="D25" s="15">
         <v>354.97</v>
       </c>
@@ -3172,7 +3189,9 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:26">
-      <c r="A26" s="1"/>
+      <c r="A26" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3200,13 +3219,21 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="14.25" spans="1:26">
-      <c r="A27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1">
+        <v>642</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>475</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3230,28 +3257,20 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" ht="14.25" spans="1:26">
-      <c r="A28" s="16" t="s">
-        <v>51</v>
+      <c r="A28" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B28" s="1">
-        <v>556</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="15">
-        <v>477</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="15">
-        <v>515</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>143</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="5"/>
@@ -3272,7 +3291,9 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="14.25" spans="1:26">
-      <c r="A29" s="1"/>
+      <c r="A29" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3300,14 +3321,28 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="14.25" spans="1:26">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1">
+        <v>556</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="D30" s="15">
+        <v>477</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>515</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>143</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="5"/>
@@ -3618,9 +3653,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3646,9 +3681,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3718,6 +3753,62 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:26">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:26">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
